--- a/メモ.xlsx
+++ b/メモ.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="python" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="環境変数設定" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>フォルダを作成</t>
     <rPh sb="5" eb="7">
@@ -277,6 +277,190 @@
   </si>
   <si>
     <r>
+      <t>MAIL_AD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'kanata-osako@kccs.co.jp'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>USER_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'220750058'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PASSWORD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'62573489'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FILE_PATH_HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'./output.html'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FILE_PATH_MARKDOWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'./output.md'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLACK_CHANNEL_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLACK_BOT_TOKEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLACK_SIGNING_SECRET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>CONFLUENCE_URL</t>
     </r>
     <r>
@@ -295,222 +479,44 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>'https=//kc-factory-iot.atlassian.net/wiki/home'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MAIL_AD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'kanata-osako@kccs.co.jp'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>USER_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'220750058'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PASSWORD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'62573489'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FILE_PATH_HTML</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'./output.html'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FILE_PATH_MARKDOWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'./output.md'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SLACK_TOKEN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SLACK_CHANNEL_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SLACK_BOT_TOKEN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SLACK_SIGNING_SECRET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>''</t>
-    </r>
+      <t>'https://kc-factory-iot.atlassian.net/wiki/home'</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■会社環境</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>■自宅環境</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +581,17 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -598,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +629,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,62 +1129,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
+      <c r="A1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
